--- a/wholesale-customers.xlsx
+++ b/wholesale-customers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-excel-demo-day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E467350E-6021-40B0-B31B-97E9C2336820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB9ADA-7FC5-4EA3-B2F6-2C10F9EB8BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{1BBBAA48-C9B4-4ACD-AB47-FCBB635B9016}"/>
   </bookViews>
@@ -578,29 +578,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -611,23 +589,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DB9934F-54CA-49B0-BE7B-A1EF8429AFA9}" name="Table1" displayName="Table1" ref="A1:H441" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H441" xr:uid="{6DB9934F-54CA-49B0-BE7B-A1EF8429AFA9}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{43013C75-3CBC-414C-8B12-9BD2EB2B252E}" name="Channel"/>
-    <tableColumn id="2" xr3:uid="{17807872-A327-41A0-A464-B4F72E647B5D}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{873F8427-AD67-4ADC-83C1-BDFEDE2AF48E}" name="Fresh" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{28FBF915-789C-4514-8FC1-4D82F8EE22DD}" name="Milk" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A4DFBEEF-5B9F-44D5-A9BE-B0633E75D2D4}" name="Grocery" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6AFC4733-C54F-4B9E-AB02-C60476A53B64}" name="Frozen" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{481D44EF-2BB2-4AC6-8831-919DCAA7A04B}" name="Detergents_Paper" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C8C3A235-6B87-4367-903E-0D3E8C25AC0C}" name="Delicassen" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12426,8 +12387,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>